--- a/Dirección y Gestión de Proyectos de Sotfware/Tareas/Tarea 1/Tarea 1 - Kalio O'Farril.xlsx
+++ b/Dirección y Gestión de Proyectos de Sotfware/Tareas/Tarea 1/Tarea 1 - Kalio O'Farril.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalioofarril/Desktop/Master/Dirección y Gestión de Proyectos de Sotfware/Tareas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalioofarril/Desktop/Master/Dirección y Gestión de Proyectos de Sotfware/Tareas/Tarea 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA204B0-C32A-D04A-9256-76E42A6F6B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E4ACEF-DFA2-0C4E-A1DE-8C1248C710DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="880" windowWidth="31880" windowHeight="19440" xr2:uid="{8F5A6C46-6DB2-6A46-B7E8-18FEFA1DA53D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="57">
   <si>
     <t>Caso Base</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Escenario 1</t>
   </si>
   <si>
-    <t>Escenario 2</t>
-  </si>
-  <si>
     <t>Pregunta 2</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
   </si>
   <si>
     <t>Pregunta 4</t>
-  </si>
-  <si>
-    <t>Suponiendo que el recurso B es capaz de trabajar en las tareas 2 y 4 a la vez, según el plan provisto, el poryecto tomaría 13 semanas en ser completado.</t>
   </si>
   <si>
     <t>Si el recurso B no es capaz de trabajar en dos tareas a la vez, hay una colisón entre las tareas 2 y 4, por lo que el proyecto se extendería dos semanas más de lo planeado.</t>
@@ -210,6 +204,9 @@
   </si>
   <si>
     <t>Suponiendo que tenemos la disponibilidad del recurso A que está asignado a las tarea 3, ya que la tarea 7 requiere de la tarea 4, no habría impacto temporarl si la tarea 3 se demorara dos semanas. Si no se tiene disponibilidad del recurso A, al terminar la semana 7 (mitad del proyecto, en donde termina la disponibilidad del recurso A), el recurso C puede terminar la tarea.</t>
+  </si>
+  <si>
+    <t>Suponiendo que el recurso B es capaz de trabajar en las tareas 2 y 4 a la vez, según el plan provisto, el poryecto tomaría 12 semanas en ser completado.</t>
   </si>
 </sst>
 </file>
@@ -323,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -583,11 +580,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -676,12 +721,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -694,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,6 +754,19 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19415626-F9FA-7445-A843-44803A0C25A9}">
   <dimension ref="A1:AH251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G258" sqref="G258"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,40 +1274,40 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
     </row>
     <row r="15" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -1259,27 +1317,27 @@
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="54"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="53"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
@@ -1597,7 +1655,7 @@
       <c r="E24" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="20"/>
@@ -1700,341 +1758,130 @@
       </c>
     </row>
     <row r="28" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="67"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
+      <c r="G28" s="57"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B29" s="58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
       <c r="E29" s="60"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B30" s="61"/>
       <c r="C30" s="62"/>
       <c r="D30" s="62"/>
       <c r="E30" s="63"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B31" s="61"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="63"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B32" s="61"/>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="63"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B33" s="61"/>
       <c r="C33" s="62"/>
       <c r="D33" s="62"/>
       <c r="E33" s="63"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B34" s="61"/>
       <c r="C34" s="62"/>
       <c r="D34" s="62"/>
       <c r="E34" s="63"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B35" s="61"/>
       <c r="C35" s="62"/>
       <c r="D35" s="62"/>
       <c r="E35" s="63"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B36" s="61"/>
       <c r="C36" s="62"/>
       <c r="D36" s="62"/>
       <c r="E36" s="63"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B37" s="61"/>
       <c r="C37" s="62"/>
       <c r="D37" s="62"/>
       <c r="E37" s="63"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
     </row>
     <row r="38" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="64"/>
       <c r="C38" s="65"/>
       <c r="D38" s="65"/>
       <c r="E38" s="66"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
     </row>
     <row r="40" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="57"/>
-      <c r="Z40" s="57"/>
-      <c r="AA40" s="57"/>
-      <c r="AB40" s="57"/>
-      <c r="AC40" s="57"/>
-      <c r="AD40" s="57"/>
-      <c r="AE40" s="57"/>
-      <c r="AF40" s="57"/>
-      <c r="AG40" s="57"/>
-      <c r="AH40" s="57"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="56"/>
+      <c r="AC40" s="56"/>
+      <c r="AD40" s="56"/>
+      <c r="AE40" s="56"/>
+      <c r="AF40" s="56"/>
+      <c r="AG40" s="56"/>
+      <c r="AH40" s="56"/>
     </row>
     <row r="41" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B42" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
       <c r="E42" s="29"/>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="67"/>
+      <c r="T42" s="78"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -2083,15 +1930,10 @@
       <c r="R43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="S43" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="52"/>
+      <c r="T43" s="78"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
@@ -2122,11 +1964,8 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="52"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="78"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
@@ -2161,11 +2000,8 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="52"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="78"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B46" s="10" t="s">
@@ -2196,11 +2032,8 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="52"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="78"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B47" s="13" t="s">
@@ -2237,11 +2070,8 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="52"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="78"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B48" s="25" t="s">
@@ -2274,13 +2104,10 @@
       <c r="P48" s="26"/>
       <c r="Q48" s="26"/>
       <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="52"/>
-    </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S48" s="73"/>
+      <c r="T48" s="78"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="16" t="s">
         <v>6</v>
       </c>
@@ -2309,13 +2136,10 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-    </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S49" s="74"/>
+      <c r="T49" s="78"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="19" t="s">
         <v>7</v>
       </c>
@@ -2328,7 +2152,7 @@
       <c r="E50" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="56" t="s">
+      <c r="G50" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H50" s="20"/>
@@ -2338,21 +2162,18 @@
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
+      <c r="O50" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="P50" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="52"/>
-      <c r="V50" s="52"/>
-      <c r="W50" s="52"/>
-    </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S50" s="75"/>
+      <c r="T50" s="78"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="22" t="s">
         <v>8</v>
       </c>
@@ -2377,19 +2198,16 @@
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
       <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
+      <c r="Q51" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="R51" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="S51" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="T51" s="24"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-    </row>
-    <row r="52" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S51" s="76"/>
+      <c r="T51" s="78"/>
+    </row>
+    <row r="52" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="47" t="s">
         <v>9</v>
       </c>
@@ -2416,173 +2234,136 @@
       <c r="P52" s="50"/>
       <c r="Q52" s="50"/>
       <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="52"/>
-    </row>
-    <row r="54" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-    </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S52" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="T52" s="78"/>
+    </row>
+    <row r="54" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="58" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
       <c r="E55" s="60"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-    </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="61"/>
       <c r="C56" s="62"/>
       <c r="D56" s="62"/>
       <c r="E56" s="63"/>
-      <c r="W56" s="52"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-    </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" s="61"/>
       <c r="C57" s="62"/>
       <c r="D57" s="62"/>
       <c r="E57" s="63"/>
-      <c r="W57" s="52"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-    </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="61"/>
       <c r="C58" s="62"/>
       <c r="D58" s="62"/>
       <c r="E58" s="63"/>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-      <c r="Y58" s="52"/>
-    </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="61"/>
       <c r="C59" s="62"/>
       <c r="D59" s="62"/>
       <c r="E59" s="63"/>
-      <c r="W59" s="52"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
-    </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="61"/>
       <c r="C60" s="62"/>
       <c r="D60" s="62"/>
       <c r="E60" s="63"/>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
-    </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="61"/>
       <c r="C61" s="62"/>
       <c r="D61" s="62"/>
       <c r="E61" s="63"/>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="52"/>
-    </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="61"/>
       <c r="C62" s="62"/>
       <c r="D62" s="62"/>
       <c r="E62" s="63"/>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
-    </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="61"/>
       <c r="C63" s="62"/>
       <c r="D63" s="62"/>
       <c r="E63" s="63"/>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-    </row>
-    <row r="64" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="64"/>
       <c r="C64" s="65"/>
       <c r="D64" s="65"/>
       <c r="E64" s="66"/>
-      <c r="W64" s="52"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="52"/>
     </row>
     <row r="66" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="57"/>
-      <c r="T66" s="57"/>
-      <c r="U66" s="57"/>
-      <c r="V66" s="57"/>
-      <c r="W66" s="57"/>
-      <c r="X66" s="57"/>
-      <c r="Y66" s="57"/>
-      <c r="Z66" s="57"/>
-      <c r="AA66" s="57"/>
-      <c r="AB66" s="57"/>
-      <c r="AC66" s="57"/>
-      <c r="AD66" s="57"/>
-      <c r="AE66" s="57"/>
-      <c r="AF66" s="57"/>
-      <c r="AG66" s="57"/>
-      <c r="AH66" s="57"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
+      <c r="V66" s="56"/>
+      <c r="W66" s="56"/>
+      <c r="X66" s="56"/>
+      <c r="Y66" s="56"/>
+      <c r="Z66" s="56"/>
+      <c r="AA66" s="56"/>
+      <c r="AB66" s="56"/>
+      <c r="AC66" s="56"/>
+      <c r="AD66" s="56"/>
+      <c r="AE66" s="56"/>
+      <c r="AF66" s="56"/>
+      <c r="AG66" s="56"/>
+      <c r="AH66" s="56"/>
     </row>
     <row r="67" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B68" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
       <c r="E68" s="29"/>
-      <c r="G68" s="55" t="s">
+      <c r="G68" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="53"/>
-      <c r="T68" s="53"/>
-      <c r="U68" s="53"/>
-      <c r="V68" s="54"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="52"/>
+      <c r="R68" s="52"/>
+      <c r="S68" s="52"/>
+      <c r="T68" s="52"/>
+      <c r="U68" s="52"/>
+      <c r="V68" s="53"/>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
@@ -2873,7 +2654,7 @@
       <c r="E76" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G76" s="56" t="s">
+      <c r="G76" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H76" s="20"/>
@@ -2969,7 +2750,7 @@
     <row r="80" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B81" s="58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
@@ -3030,65 +2811,65 @@
       <c r="E90" s="66"/>
     </row>
     <row r="92" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="57"/>
-      <c r="I92" s="57"/>
-      <c r="J92" s="57"/>
-      <c r="K92" s="57"/>
-      <c r="L92" s="57"/>
-      <c r="M92" s="57"/>
-      <c r="N92" s="57"/>
-      <c r="O92" s="57"/>
-      <c r="P92" s="57"/>
-      <c r="Q92" s="57"/>
-      <c r="R92" s="57"/>
-      <c r="S92" s="57"/>
-      <c r="T92" s="57"/>
-      <c r="U92" s="57"/>
-      <c r="V92" s="57"/>
-      <c r="W92" s="57"/>
-      <c r="X92" s="57"/>
-      <c r="Y92" s="57"/>
-      <c r="Z92" s="57"/>
-      <c r="AA92" s="57"/>
-      <c r="AB92" s="57"/>
-      <c r="AC92" s="57"/>
-      <c r="AD92" s="57"/>
-      <c r="AE92" s="57"/>
-      <c r="AF92" s="57"/>
-      <c r="AG92" s="57"/>
-      <c r="AH92" s="57"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="56"/>
+      <c r="K92" s="56"/>
+      <c r="L92" s="56"/>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="56"/>
+      <c r="P92" s="56"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="56"/>
+      <c r="T92" s="56"/>
+      <c r="U92" s="56"/>
+      <c r="V92" s="56"/>
+      <c r="W92" s="56"/>
+      <c r="X92" s="56"/>
+      <c r="Y92" s="56"/>
+      <c r="Z92" s="56"/>
+      <c r="AA92" s="56"/>
+      <c r="AB92" s="56"/>
+      <c r="AC92" s="56"/>
+      <c r="AD92" s="56"/>
+      <c r="AE92" s="56"/>
+      <c r="AF92" s="56"/>
+      <c r="AG92" s="56"/>
+      <c r="AH92" s="56"/>
     </row>
     <row r="93" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B94" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
       <c r="E94" s="29"/>
-      <c r="G94" s="55" t="s">
+      <c r="G94" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="53"/>
-      <c r="M94" s="53"/>
-      <c r="N94" s="53"/>
-      <c r="O94" s="53"/>
-      <c r="P94" s="53"/>
-      <c r="Q94" s="53"/>
-      <c r="R94" s="53"/>
-      <c r="S94" s="53"/>
-      <c r="T94" s="54"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="52"/>
+      <c r="N94" s="52"/>
+      <c r="O94" s="52"/>
+      <c r="P94" s="52"/>
+      <c r="Q94" s="52"/>
+      <c r="R94" s="52"/>
+      <c r="S94" s="67"/>
+      <c r="T94" s="79"/>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
@@ -3137,12 +2918,10 @@
       <c r="R95" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S95" s="1" t="s">
+      <c r="S95" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="T95" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="T95" s="79"/>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
@@ -3173,8 +2952,8 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="6"/>
+      <c r="S96" s="69"/>
+      <c r="T96" s="79"/>
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B97" s="7" t="s">
@@ -3195,13 +2974,13 @@
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
@@ -3209,8 +2988,8 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="9"/>
+      <c r="S97" s="70"/>
+      <c r="T97" s="79"/>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B98" s="10" t="s">
@@ -3241,8 +3020,8 @@
       <c r="P98" s="11"/>
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="12"/>
+      <c r="S98" s="71"/>
+      <c r="T98" s="79"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B99" s="13" t="s">
@@ -3279,8 +3058,8 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
       <c r="R99" s="14"/>
-      <c r="S99" s="14"/>
-      <c r="T99" s="15"/>
+      <c r="S99" s="72"/>
+      <c r="T99" s="79"/>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B100" s="25" t="s">
@@ -3313,8 +3092,8 @@
       <c r="P100" s="26"/>
       <c r="Q100" s="26"/>
       <c r="R100" s="26"/>
-      <c r="S100" s="26"/>
-      <c r="T100" s="27"/>
+      <c r="S100" s="73"/>
+      <c r="T100" s="79"/>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B101" s="16" t="s">
@@ -3345,8 +3124,8 @@
       <c r="P101" s="17"/>
       <c r="Q101" s="17"/>
       <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
-      <c r="T101" s="18"/>
+      <c r="S101" s="74"/>
+      <c r="T101" s="79"/>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B102" s="19" t="s">
@@ -3361,7 +3140,7 @@
       <c r="E102" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G102" s="56" t="s">
+      <c r="G102" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H102" s="20"/>
@@ -3371,16 +3150,16 @@
       <c r="L102" s="20"/>
       <c r="M102" s="20"/>
       <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
+      <c r="O102" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="P102" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q102" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q102" s="20"/>
       <c r="R102" s="20"/>
-      <c r="S102" s="20"/>
-      <c r="T102" s="21"/>
+      <c r="S102" s="75"/>
+      <c r="T102" s="79"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B103" s="22" t="s">
@@ -3407,14 +3186,14 @@
       <c r="N103" s="23"/>
       <c r="O103" s="23"/>
       <c r="P103" s="23"/>
-      <c r="Q103" s="23"/>
+      <c r="Q103" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="R103" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="S103" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="T103" s="24"/>
+      <c r="S103" s="76"/>
+      <c r="T103" s="79"/>
     </row>
     <row r="104" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B104" s="47" t="s">
@@ -3443,15 +3222,15 @@
       <c r="P104" s="50"/>
       <c r="Q104" s="50"/>
       <c r="R104" s="50"/>
-      <c r="S104" s="50"/>
-      <c r="T104" s="51" t="s">
-        <v>18</v>
-      </c>
+      <c r="S104" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="T104" s="79"/>
     </row>
     <row r="106" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B107" s="58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C107" s="59"/>
       <c r="D107" s="59"/>
@@ -3512,65 +3291,64 @@
       <c r="E116" s="66"/>
     </row>
     <row r="118" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="57"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="57"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="57"/>
-      <c r="F118" s="57"/>
-      <c r="G118" s="57"/>
-      <c r="H118" s="57"/>
-      <c r="I118" s="57"/>
-      <c r="J118" s="57"/>
-      <c r="K118" s="57"/>
-      <c r="L118" s="57"/>
-      <c r="M118" s="57"/>
-      <c r="N118" s="57"/>
-      <c r="O118" s="57"/>
-      <c r="P118" s="57"/>
-      <c r="Q118" s="57"/>
-      <c r="R118" s="57"/>
-      <c r="S118" s="57"/>
-      <c r="T118" s="57"/>
-      <c r="U118" s="57"/>
-      <c r="V118" s="57"/>
-      <c r="W118" s="57"/>
-      <c r="X118" s="57"/>
-      <c r="Y118" s="57"/>
-      <c r="Z118" s="57"/>
-      <c r="AA118" s="57"/>
-      <c r="AB118" s="57"/>
-      <c r="AC118" s="57"/>
-      <c r="AD118" s="57"/>
-      <c r="AE118" s="57"/>
-      <c r="AF118" s="57"/>
-      <c r="AG118" s="57"/>
-      <c r="AH118" s="57"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="56"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="56"/>
+      <c r="E118" s="56"/>
+      <c r="F118" s="56"/>
+      <c r="G118" s="56"/>
+      <c r="H118" s="56"/>
+      <c r="I118" s="56"/>
+      <c r="J118" s="56"/>
+      <c r="K118" s="56"/>
+      <c r="L118" s="56"/>
+      <c r="M118" s="56"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="56"/>
+      <c r="P118" s="56"/>
+      <c r="Q118" s="56"/>
+      <c r="R118" s="56"/>
+      <c r="S118" s="56"/>
+      <c r="T118" s="56"/>
+      <c r="U118" s="56"/>
+      <c r="V118" s="56"/>
+      <c r="W118" s="56"/>
+      <c r="X118" s="56"/>
+      <c r="Y118" s="56"/>
+      <c r="Z118" s="56"/>
+      <c r="AA118" s="56"/>
+      <c r="AB118" s="56"/>
+      <c r="AC118" s="56"/>
+      <c r="AD118" s="56"/>
+      <c r="AE118" s="56"/>
+      <c r="AF118" s="56"/>
+      <c r="AG118" s="56"/>
+      <c r="AH118" s="56"/>
     </row>
     <row r="119" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B120" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
       <c r="E120" s="29"/>
-      <c r="G120" s="55" t="s">
+      <c r="G120" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="53"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="53"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="53"/>
-      <c r="M120" s="53"/>
-      <c r="N120" s="53"/>
-      <c r="O120" s="53"/>
-      <c r="P120" s="53"/>
-      <c r="Q120" s="53"/>
-      <c r="R120" s="53"/>
-      <c r="S120" s="54"/>
-      <c r="T120" s="52"/>
+      <c r="H120" s="52"/>
+      <c r="I120" s="52"/>
+      <c r="J120" s="52"/>
+      <c r="K120" s="52"/>
+      <c r="L120" s="52"/>
+      <c r="M120" s="52"/>
+      <c r="N120" s="52"/>
+      <c r="O120" s="52"/>
+      <c r="P120" s="52"/>
+      <c r="Q120" s="52"/>
+      <c r="R120" s="67"/>
+      <c r="S120" s="79"/>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
@@ -3616,13 +3394,10 @@
       <c r="Q121" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R121" s="1" t="s">
+      <c r="R121" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="S121" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T121" s="52"/>
+      <c r="S121" s="79"/>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
@@ -3652,9 +3427,8 @@
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="6"/>
-      <c r="T122" s="52"/>
+      <c r="R122" s="69"/>
+      <c r="S122" s="79"/>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B123" s="7" t="s">
@@ -3675,22 +3449,21 @@
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
       <c r="J123" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M123" s="8"/>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
-      <c r="R123" s="8"/>
-      <c r="S123" s="9"/>
-      <c r="T123" s="52"/>
+      <c r="R123" s="70"/>
+      <c r="S123" s="79"/>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B124" s="10" t="s">
@@ -3720,9 +3493,8 @@
       <c r="O124" s="11"/>
       <c r="P124" s="11"/>
       <c r="Q124" s="11"/>
-      <c r="R124" s="11"/>
-      <c r="S124" s="12"/>
-      <c r="T124" s="52"/>
+      <c r="R124" s="71"/>
+      <c r="S124" s="79"/>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B125" s="13" t="s">
@@ -3758,9 +3530,8 @@
       <c r="O125" s="14"/>
       <c r="P125" s="14"/>
       <c r="Q125" s="14"/>
-      <c r="R125" s="14"/>
-      <c r="S125" s="15"/>
-      <c r="T125" s="52"/>
+      <c r="R125" s="72"/>
+      <c r="S125" s="79"/>
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B126" s="25" t="s">
@@ -3792,9 +3563,8 @@
       <c r="O126" s="26"/>
       <c r="P126" s="26"/>
       <c r="Q126" s="26"/>
-      <c r="R126" s="26"/>
-      <c r="S126" s="27"/>
-      <c r="T126" s="52"/>
+      <c r="R126" s="73"/>
+      <c r="S126" s="79"/>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B127" s="16" t="s">
@@ -3824,9 +3594,8 @@
       </c>
       <c r="P127" s="17"/>
       <c r="Q127" s="17"/>
-      <c r="R127" s="17"/>
-      <c r="S127" s="18"/>
-      <c r="T127" s="52"/>
+      <c r="R127" s="74"/>
+      <c r="S127" s="79"/>
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B128" s="19" t="s">
@@ -3841,7 +3610,7 @@
       <c r="E128" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G128" s="56" t="s">
+      <c r="G128" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H128" s="20"/>
@@ -3851,16 +3620,15 @@
       <c r="L128" s="20"/>
       <c r="M128" s="20"/>
       <c r="N128" s="20"/>
-      <c r="O128" s="20"/>
+      <c r="O128" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="P128" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q128" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="R128" s="20"/>
-      <c r="S128" s="21"/>
-      <c r="T128" s="52"/>
+      <c r="Q128" s="20"/>
+      <c r="R128" s="75"/>
+      <c r="S128" s="79"/>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B129" s="22" t="s">
@@ -3873,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G129" s="22" t="s">
         <v>8</v>
@@ -3887,12 +3655,11 @@
       <c r="N129" s="23"/>
       <c r="O129" s="23"/>
       <c r="P129" s="23"/>
-      <c r="Q129" s="23"/>
-      <c r="R129" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="S129" s="24"/>
-      <c r="T129" s="52"/>
+      <c r="Q129" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R129" s="76"/>
+      <c r="S129" s="79"/>
     </row>
     <row r="130" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B130" s="47" t="s">
@@ -3920,16 +3687,15 @@
       <c r="O130" s="50"/>
       <c r="P130" s="50"/>
       <c r="Q130" s="50"/>
-      <c r="R130" s="50"/>
-      <c r="S130" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="T130" s="52"/>
+      <c r="R130" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="S130" s="79"/>
     </row>
     <row r="132" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B133" s="58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C133" s="59"/>
       <c r="D133" s="59"/>
@@ -3990,67 +3756,67 @@
       <c r="E142" s="66"/>
     </row>
     <row r="144" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="57"/>
-      <c r="B144" s="57"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="57"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="57"/>
-      <c r="H144" s="57"/>
-      <c r="I144" s="57"/>
-      <c r="J144" s="57"/>
-      <c r="K144" s="57"/>
-      <c r="L144" s="57"/>
-      <c r="M144" s="57"/>
-      <c r="N144" s="57"/>
-      <c r="O144" s="57"/>
-      <c r="P144" s="57"/>
-      <c r="Q144" s="57"/>
-      <c r="R144" s="57"/>
-      <c r="S144" s="57"/>
-      <c r="T144" s="57"/>
-      <c r="U144" s="57"/>
-      <c r="V144" s="57"/>
-      <c r="W144" s="57"/>
-      <c r="X144" s="57"/>
-      <c r="Y144" s="57"/>
-      <c r="Z144" s="57"/>
-      <c r="AA144" s="57"/>
-      <c r="AB144" s="57"/>
-      <c r="AC144" s="57"/>
-      <c r="AD144" s="57"/>
-      <c r="AE144" s="57"/>
-      <c r="AF144" s="57"/>
-      <c r="AG144" s="57"/>
-      <c r="AH144" s="57"/>
+      <c r="A144" s="56"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="56"/>
+      <c r="D144" s="56"/>
+      <c r="E144" s="56"/>
+      <c r="F144" s="56"/>
+      <c r="G144" s="56"/>
+      <c r="H144" s="56"/>
+      <c r="I144" s="56"/>
+      <c r="J144" s="56"/>
+      <c r="K144" s="56"/>
+      <c r="L144" s="56"/>
+      <c r="M144" s="56"/>
+      <c r="N144" s="56"/>
+      <c r="O144" s="56"/>
+      <c r="P144" s="56"/>
+      <c r="Q144" s="56"/>
+      <c r="R144" s="56"/>
+      <c r="S144" s="56"/>
+      <c r="T144" s="56"/>
+      <c r="U144" s="56"/>
+      <c r="V144" s="56"/>
+      <c r="W144" s="56"/>
+      <c r="X144" s="56"/>
+      <c r="Y144" s="56"/>
+      <c r="Z144" s="56"/>
+      <c r="AA144" s="56"/>
+      <c r="AB144" s="56"/>
+      <c r="AC144" s="56"/>
+      <c r="AD144" s="56"/>
+      <c r="AE144" s="56"/>
+      <c r="AF144" s="56"/>
+      <c r="AG144" s="56"/>
+      <c r="AH144" s="56"/>
     </row>
     <row r="146" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="147" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B147" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
       <c r="E147" s="29"/>
-      <c r="G147" s="55" t="s">
+      <c r="G147" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H147" s="53"/>
-      <c r="I147" s="53"/>
-      <c r="J147" s="53"/>
-      <c r="K147" s="53"/>
-      <c r="L147" s="53"/>
-      <c r="M147" s="53"/>
-      <c r="N147" s="53"/>
-      <c r="O147" s="53"/>
-      <c r="P147" s="53"/>
-      <c r="Q147" s="53"/>
-      <c r="R147" s="53"/>
-      <c r="S147" s="53"/>
-      <c r="T147" s="53"/>
-      <c r="U147" s="53"/>
-      <c r="V147" s="54"/>
+      <c r="H147" s="52"/>
+      <c r="I147" s="52"/>
+      <c r="J147" s="52"/>
+      <c r="K147" s="52"/>
+      <c r="L147" s="52"/>
+      <c r="M147" s="52"/>
+      <c r="N147" s="52"/>
+      <c r="O147" s="52"/>
+      <c r="P147" s="52"/>
+      <c r="Q147" s="52"/>
+      <c r="R147" s="52"/>
+      <c r="S147" s="52"/>
+      <c r="T147" s="52"/>
+      <c r="U147" s="67"/>
+      <c r="V147" s="79"/>
     </row>
     <row r="148" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
@@ -4105,12 +3871,10 @@
       <c r="T148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U148" s="1" t="s">
+      <c r="U148" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="V148" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="V148" s="79"/>
     </row>
     <row r="149" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B149" s="4" t="s">
@@ -4143,8 +3907,8 @@
       <c r="R149" s="5"/>
       <c r="S149" s="5"/>
       <c r="T149" s="5"/>
-      <c r="U149" s="5"/>
-      <c r="V149" s="6"/>
+      <c r="U149" s="69"/>
+      <c r="V149" s="79"/>
     </row>
     <row r="150" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B150" s="7" t="s">
@@ -4181,8 +3945,8 @@
       <c r="R150" s="8"/>
       <c r="S150" s="8"/>
       <c r="T150" s="8"/>
-      <c r="U150" s="8"/>
-      <c r="V150" s="9"/>
+      <c r="U150" s="70"/>
+      <c r="V150" s="79"/>
     </row>
     <row r="151" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B151" s="10" t="s">
@@ -4219,8 +3983,8 @@
       <c r="R151" s="11"/>
       <c r="S151" s="11"/>
       <c r="T151" s="11"/>
-      <c r="U151" s="11"/>
-      <c r="V151" s="12"/>
+      <c r="U151" s="71"/>
+      <c r="V151" s="79"/>
     </row>
     <row r="152" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B152" s="13" t="s">
@@ -4259,8 +4023,8 @@
       <c r="R152" s="14"/>
       <c r="S152" s="14"/>
       <c r="T152" s="14"/>
-      <c r="U152" s="14"/>
-      <c r="V152" s="15"/>
+      <c r="U152" s="72"/>
+      <c r="V152" s="79"/>
     </row>
     <row r="153" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B153" s="25" t="s">
@@ -4295,8 +4059,8 @@
       <c r="R153" s="26"/>
       <c r="S153" s="26"/>
       <c r="T153" s="26"/>
-      <c r="U153" s="26"/>
-      <c r="V153" s="27"/>
+      <c r="U153" s="73"/>
+      <c r="V153" s="79"/>
     </row>
     <row r="154" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B154" s="16" t="s">
@@ -4329,8 +4093,8 @@
       <c r="R154" s="17"/>
       <c r="S154" s="17"/>
       <c r="T154" s="17"/>
-      <c r="U154" s="17"/>
-      <c r="V154" s="18"/>
+      <c r="U154" s="74"/>
+      <c r="V154" s="79"/>
     </row>
     <row r="155" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B155" s="19" t="s">
@@ -4345,7 +4109,7 @@
       <c r="E155" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G155" s="56" t="s">
+      <c r="G155" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H155" s="20"/>
@@ -4357,16 +4121,16 @@
       <c r="N155" s="20"/>
       <c r="O155" s="20"/>
       <c r="P155" s="20"/>
-      <c r="Q155" s="20"/>
+      <c r="Q155" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="R155" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="S155" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="S155" s="20"/>
       <c r="T155" s="20"/>
-      <c r="U155" s="20"/>
-      <c r="V155" s="21"/>
+      <c r="U155" s="75"/>
+      <c r="V155" s="79"/>
     </row>
     <row r="156" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B156" s="22" t="s">
@@ -4395,14 +4159,14 @@
       <c r="P156" s="23"/>
       <c r="Q156" s="23"/>
       <c r="R156" s="23"/>
-      <c r="S156" s="23"/>
+      <c r="S156" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="T156" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="U156" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V156" s="24"/>
+      <c r="U156" s="76"/>
+      <c r="V156" s="79"/>
     </row>
     <row r="157" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B157" s="47" t="s">
@@ -4433,382 +4197,292 @@
       <c r="R157" s="50"/>
       <c r="S157" s="50"/>
       <c r="T157" s="50"/>
-      <c r="U157" s="50"/>
-      <c r="V157" s="51" t="s">
-        <v>18</v>
-      </c>
+      <c r="U157" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="V157" s="79"/>
     </row>
     <row r="159" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="160" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B160" s="58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C160" s="59"/>
       <c r="D160" s="59"/>
       <c r="E160" s="60"/>
-      <c r="G160" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="H160" s="53"/>
-      <c r="I160" s="53"/>
-      <c r="J160" s="53"/>
-      <c r="K160" s="53"/>
-      <c r="L160" s="53"/>
-      <c r="M160" s="53"/>
-      <c r="N160" s="53"/>
-      <c r="O160" s="53"/>
-      <c r="P160" s="53"/>
-      <c r="Q160" s="53"/>
-      <c r="R160" s="53"/>
-      <c r="S160" s="53"/>
-      <c r="T160" s="53"/>
-      <c r="U160" s="53"/>
-      <c r="V160" s="54"/>
+      <c r="G160" s="80"/>
+      <c r="H160" s="79"/>
+      <c r="I160" s="79"/>
+      <c r="J160" s="79"/>
+      <c r="K160" s="79"/>
+      <c r="L160" s="79"/>
+      <c r="M160" s="79"/>
+      <c r="N160" s="79"/>
+      <c r="O160" s="79"/>
+      <c r="P160" s="79"/>
+      <c r="Q160" s="79"/>
+      <c r="R160" s="79"/>
+      <c r="S160" s="79"/>
+      <c r="T160" s="79"/>
+      <c r="U160" s="79"/>
+      <c r="V160" s="79"/>
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B161" s="61"/>
       <c r="C161" s="62"/>
       <c r="D161" s="62"/>
       <c r="E161" s="63"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M161" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N161" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O161" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P161" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q161" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R161" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S161" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T161" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U161" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V161" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="G161" s="79"/>
+      <c r="H161" s="79"/>
+      <c r="I161" s="79"/>
+      <c r="J161" s="79"/>
+      <c r="K161" s="79"/>
+      <c r="L161" s="79"/>
+      <c r="M161" s="79"/>
+      <c r="N161" s="79"/>
+      <c r="O161" s="79"/>
+      <c r="P161" s="79"/>
+      <c r="Q161" s="79"/>
+      <c r="R161" s="79"/>
+      <c r="S161" s="79"/>
+      <c r="T161" s="79"/>
+      <c r="U161" s="79"/>
+      <c r="V161" s="79"/>
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B162" s="61"/>
       <c r="C162" s="62"/>
       <c r="D162" s="62"/>
       <c r="E162" s="63"/>
-      <c r="G162" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H162" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I162" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
-      <c r="U162" s="5"/>
-      <c r="V162" s="6"/>
+      <c r="G162" s="79"/>
+      <c r="H162" s="79"/>
+      <c r="I162" s="79"/>
+      <c r="J162" s="79"/>
+      <c r="K162" s="79"/>
+      <c r="L162" s="79"/>
+      <c r="M162" s="79"/>
+      <c r="N162" s="79"/>
+      <c r="O162" s="79"/>
+      <c r="P162" s="79"/>
+      <c r="Q162" s="79"/>
+      <c r="R162" s="79"/>
+      <c r="S162" s="79"/>
+      <c r="T162" s="79"/>
+      <c r="U162" s="79"/>
+      <c r="V162" s="79"/>
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B163" s="61"/>
       <c r="C163" s="62"/>
       <c r="D163" s="62"/>
       <c r="E163" s="63"/>
-      <c r="G163" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K163" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L163" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M163" s="8"/>
-      <c r="N163" s="8"/>
-      <c r="O163" s="8"/>
-      <c r="P163" s="8"/>
-      <c r="Q163" s="8"/>
-      <c r="R163" s="8"/>
-      <c r="S163" s="8"/>
-      <c r="T163" s="8"/>
-      <c r="U163" s="8"/>
-      <c r="V163" s="9"/>
+      <c r="G163" s="79"/>
+      <c r="H163" s="79"/>
+      <c r="I163" s="79"/>
+      <c r="J163" s="79"/>
+      <c r="K163" s="79"/>
+      <c r="L163" s="79"/>
+      <c r="M163" s="79"/>
+      <c r="N163" s="79"/>
+      <c r="O163" s="79"/>
+      <c r="P163" s="79"/>
+      <c r="Q163" s="79"/>
+      <c r="R163" s="79"/>
+      <c r="S163" s="79"/>
+      <c r="T163" s="79"/>
+      <c r="U163" s="79"/>
+      <c r="V163" s="79"/>
     </row>
     <row r="164" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B164" s="61"/>
       <c r="C164" s="62"/>
       <c r="D164" s="62"/>
       <c r="E164" s="63"/>
-      <c r="G164" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H164" s="11"/>
-      <c r="I164" s="11"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="11"/>
-      <c r="L164" s="11"/>
-      <c r="M164" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N164" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O164" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P164" s="11"/>
-      <c r="Q164" s="11"/>
-      <c r="R164" s="11"/>
-      <c r="S164" s="11"/>
-      <c r="T164" s="11"/>
-      <c r="U164" s="11"/>
-      <c r="V164" s="12"/>
+      <c r="G164" s="79"/>
+      <c r="H164" s="79"/>
+      <c r="I164" s="79"/>
+      <c r="J164" s="79"/>
+      <c r="K164" s="79"/>
+      <c r="L164" s="79"/>
+      <c r="M164" s="79"/>
+      <c r="N164" s="79"/>
+      <c r="O164" s="79"/>
+      <c r="P164" s="79"/>
+      <c r="Q164" s="79"/>
+      <c r="R164" s="79"/>
+      <c r="S164" s="79"/>
+      <c r="T164" s="79"/>
+      <c r="U164" s="79"/>
+      <c r="V164" s="79"/>
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B165" s="61"/>
       <c r="C165" s="62"/>
       <c r="D165" s="62"/>
       <c r="E165" s="63"/>
-      <c r="G165" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H165" s="14"/>
-      <c r="I165" s="14"/>
-      <c r="J165" s="14"/>
-      <c r="K165" s="14"/>
-      <c r="L165" s="14"/>
-      <c r="M165" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N165" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O165" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P165" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q165" s="14"/>
-      <c r="R165" s="14"/>
-      <c r="S165" s="14"/>
-      <c r="T165" s="14"/>
-      <c r="U165" s="14"/>
-      <c r="V165" s="15"/>
+      <c r="G165" s="79"/>
+      <c r="H165" s="79"/>
+      <c r="I165" s="79"/>
+      <c r="J165" s="79"/>
+      <c r="K165" s="79"/>
+      <c r="L165" s="79"/>
+      <c r="M165" s="79"/>
+      <c r="N165" s="79"/>
+      <c r="O165" s="79"/>
+      <c r="P165" s="79"/>
+      <c r="Q165" s="79"/>
+      <c r="R165" s="79"/>
+      <c r="S165" s="79"/>
+      <c r="T165" s="79"/>
+      <c r="U165" s="79"/>
+      <c r="V165" s="79"/>
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B166" s="61"/>
       <c r="C166" s="62"/>
       <c r="D166" s="62"/>
       <c r="E166" s="63"/>
-      <c r="G166" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H166" s="26"/>
-      <c r="I166" s="26"/>
-      <c r="J166" s="26"/>
-      <c r="K166" s="26"/>
-      <c r="L166" s="26"/>
-      <c r="M166" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N166" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O166" s="26"/>
-      <c r="P166" s="26"/>
-      <c r="Q166" s="26"/>
-      <c r="R166" s="26"/>
-      <c r="S166" s="26"/>
-      <c r="T166" s="26"/>
-      <c r="U166" s="26"/>
-      <c r="V166" s="27"/>
+      <c r="G166" s="79"/>
+      <c r="H166" s="79"/>
+      <c r="I166" s="79"/>
+      <c r="J166" s="79"/>
+      <c r="K166" s="79"/>
+      <c r="L166" s="79"/>
+      <c r="M166" s="79"/>
+      <c r="N166" s="79"/>
+      <c r="O166" s="79"/>
+      <c r="P166" s="79"/>
+      <c r="Q166" s="79"/>
+      <c r="R166" s="79"/>
+      <c r="S166" s="79"/>
+      <c r="T166" s="79"/>
+      <c r="U166" s="79"/>
+      <c r="V166" s="79"/>
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B167" s="61"/>
       <c r="C167" s="62"/>
       <c r="D167" s="62"/>
       <c r="E167" s="63"/>
-      <c r="G167" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H167" s="17"/>
-      <c r="I167" s="17"/>
-      <c r="J167" s="17"/>
-      <c r="K167" s="17"/>
-      <c r="L167" s="17"/>
-      <c r="M167" s="17"/>
-      <c r="N167" s="17"/>
-      <c r="O167" s="17"/>
-      <c r="P167" s="17"/>
-      <c r="Q167" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="R167" s="17"/>
-      <c r="S167" s="17"/>
-      <c r="T167" s="17"/>
-      <c r="U167" s="17"/>
-      <c r="V167" s="18"/>
+      <c r="G167" s="79"/>
+      <c r="H167" s="79"/>
+      <c r="I167" s="79"/>
+      <c r="J167" s="79"/>
+      <c r="K167" s="79"/>
+      <c r="L167" s="79"/>
+      <c r="M167" s="79"/>
+      <c r="N167" s="79"/>
+      <c r="O167" s="79"/>
+      <c r="P167" s="79"/>
+      <c r="Q167" s="79"/>
+      <c r="R167" s="79"/>
+      <c r="S167" s="79"/>
+      <c r="T167" s="79"/>
+      <c r="U167" s="79"/>
+      <c r="V167" s="79"/>
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B168" s="61"/>
       <c r="C168" s="62"/>
       <c r="D168" s="62"/>
       <c r="E168" s="63"/>
-      <c r="G168" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H168" s="20"/>
-      <c r="I168" s="20"/>
-      <c r="J168" s="20"/>
-      <c r="K168" s="20"/>
-      <c r="L168" s="20"/>
-      <c r="M168" s="20"/>
-      <c r="N168" s="20"/>
-      <c r="O168" s="20"/>
-      <c r="P168" s="20"/>
-      <c r="Q168" s="20"/>
-      <c r="R168" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S168" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="T168" s="20"/>
-      <c r="U168" s="20"/>
-      <c r="V168" s="21"/>
+      <c r="G168" s="79"/>
+      <c r="H168" s="79"/>
+      <c r="I168" s="79"/>
+      <c r="J168" s="79"/>
+      <c r="K168" s="79"/>
+      <c r="L168" s="79"/>
+      <c r="M168" s="79"/>
+      <c r="N168" s="79"/>
+      <c r="O168" s="79"/>
+      <c r="P168" s="79"/>
+      <c r="Q168" s="79"/>
+      <c r="R168" s="79"/>
+      <c r="S168" s="79"/>
+      <c r="T168" s="79"/>
+      <c r="U168" s="79"/>
+      <c r="V168" s="79"/>
     </row>
     <row r="169" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="64"/>
       <c r="C169" s="65"/>
       <c r="D169" s="65"/>
       <c r="E169" s="66"/>
-      <c r="G169" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H169" s="23"/>
-      <c r="I169" s="23"/>
-      <c r="J169" s="23"/>
-      <c r="K169" s="23"/>
-      <c r="L169" s="23"/>
-      <c r="M169" s="23"/>
-      <c r="N169" s="23"/>
-      <c r="O169" s="23"/>
-      <c r="P169" s="23"/>
-      <c r="Q169" s="23"/>
-      <c r="R169" s="23"/>
-      <c r="S169" s="23"/>
-      <c r="T169" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U169" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V169" s="24"/>
-    </row>
-    <row r="170" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G170" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H170" s="50"/>
-      <c r="I170" s="50"/>
-      <c r="J170" s="50"/>
-      <c r="K170" s="50"/>
-      <c r="L170" s="50"/>
-      <c r="M170" s="50"/>
-      <c r="N170" s="50"/>
-      <c r="O170" s="50"/>
-      <c r="P170" s="50"/>
-      <c r="Q170" s="50"/>
-      <c r="R170" s="50"/>
-      <c r="S170" s="50"/>
-      <c r="T170" s="50"/>
-      <c r="U170" s="50"/>
-      <c r="V170" s="51" t="s">
-        <v>18</v>
-      </c>
+      <c r="G169" s="79"/>
+      <c r="H169" s="79"/>
+      <c r="I169" s="79"/>
+      <c r="J169" s="79"/>
+      <c r="K169" s="79"/>
+      <c r="L169" s="79"/>
+      <c r="M169" s="79"/>
+      <c r="N169" s="79"/>
+      <c r="O169" s="79"/>
+      <c r="P169" s="79"/>
+      <c r="Q169" s="79"/>
+      <c r="R169" s="79"/>
+      <c r="S169" s="79"/>
+      <c r="T169" s="79"/>
+      <c r="U169" s="79"/>
+      <c r="V169" s="79"/>
+    </row>
+    <row r="170" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G170" s="79"/>
+      <c r="H170" s="79"/>
+      <c r="I170" s="79"/>
+      <c r="J170" s="79"/>
+      <c r="K170" s="79"/>
+      <c r="L170" s="79"/>
+      <c r="M170" s="79"/>
+      <c r="N170" s="79"/>
+      <c r="O170" s="79"/>
+      <c r="P170" s="79"/>
+      <c r="Q170" s="79"/>
+      <c r="R170" s="79"/>
+      <c r="S170" s="79"/>
+      <c r="T170" s="79"/>
+      <c r="U170" s="79"/>
+      <c r="V170" s="79"/>
     </row>
     <row r="171" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="57"/>
-      <c r="B171" s="57"/>
-      <c r="C171" s="57"/>
-      <c r="D171" s="57"/>
-      <c r="E171" s="57"/>
-      <c r="F171" s="57"/>
-      <c r="G171" s="57"/>
-      <c r="H171" s="57"/>
-      <c r="I171" s="57"/>
-      <c r="J171" s="57"/>
-      <c r="K171" s="57"/>
-      <c r="L171" s="57"/>
-      <c r="M171" s="57"/>
-      <c r="N171" s="57"/>
-      <c r="O171" s="57"/>
-      <c r="P171" s="57"/>
-      <c r="Q171" s="57"/>
-      <c r="R171" s="57"/>
-      <c r="S171" s="57"/>
-      <c r="T171" s="57"/>
-      <c r="U171" s="57"/>
-      <c r="V171" s="57"/>
-      <c r="W171" s="57"/>
-      <c r="X171" s="57"/>
-      <c r="Y171" s="57"/>
-      <c r="Z171" s="57"/>
-      <c r="AA171" s="57"/>
-      <c r="AB171" s="57"/>
-      <c r="AC171" s="57"/>
-      <c r="AD171" s="57"/>
-      <c r="AE171" s="57"/>
-      <c r="AF171" s="57"/>
-      <c r="AG171" s="57"/>
-      <c r="AH171" s="57"/>
+      <c r="A171" s="56"/>
+      <c r="B171" s="56"/>
+      <c r="C171" s="56"/>
+      <c r="D171" s="56"/>
+      <c r="E171" s="56"/>
+      <c r="F171" s="56"/>
+      <c r="G171" s="56"/>
+      <c r="H171" s="56"/>
+      <c r="I171" s="56"/>
+      <c r="J171" s="56"/>
+      <c r="K171" s="56"/>
+      <c r="L171" s="56"/>
+      <c r="M171" s="56"/>
+      <c r="N171" s="56"/>
+      <c r="O171" s="56"/>
+      <c r="P171" s="56"/>
+      <c r="Q171" s="56"/>
+      <c r="R171" s="56"/>
+      <c r="S171" s="56"/>
+      <c r="T171" s="56"/>
+      <c r="U171" s="56"/>
+      <c r="V171" s="56"/>
+      <c r="W171" s="56"/>
+      <c r="X171" s="56"/>
+      <c r="Y171" s="56"/>
+      <c r="Z171" s="56"/>
+      <c r="AA171" s="56"/>
+      <c r="AB171" s="56"/>
+      <c r="AC171" s="56"/>
+      <c r="AD171" s="56"/>
+      <c r="AE171" s="56"/>
+      <c r="AF171" s="56"/>
+      <c r="AG171" s="56"/>
+      <c r="AH171" s="56"/>
     </row>
     <row r="173" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B174" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C174" s="28"/>
       <c r="D174" s="28"/>
@@ -4955,7 +4629,7 @@
     <row r="186" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" s="58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C187" s="59"/>
       <c r="D187" s="59"/>
@@ -5016,67 +4690,67 @@
       <c r="E196" s="66"/>
     </row>
     <row r="198" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="57"/>
-      <c r="B198" s="57"/>
-      <c r="C198" s="57"/>
-      <c r="D198" s="57"/>
-      <c r="E198" s="57"/>
-      <c r="F198" s="57"/>
-      <c r="G198" s="57"/>
-      <c r="H198" s="57"/>
-      <c r="I198" s="57"/>
-      <c r="J198" s="57"/>
-      <c r="K198" s="57"/>
-      <c r="L198" s="57"/>
-      <c r="M198" s="57"/>
-      <c r="N198" s="57"/>
-      <c r="O198" s="57"/>
-      <c r="P198" s="57"/>
-      <c r="Q198" s="57"/>
-      <c r="R198" s="57"/>
-      <c r="S198" s="57"/>
-      <c r="T198" s="57"/>
-      <c r="U198" s="57"/>
-      <c r="V198" s="57"/>
-      <c r="W198" s="57"/>
-      <c r="X198" s="57"/>
-      <c r="Y198" s="57"/>
-      <c r="Z198" s="57"/>
-      <c r="AA198" s="57"/>
-      <c r="AB198" s="57"/>
-      <c r="AC198" s="57"/>
-      <c r="AD198" s="57"/>
-      <c r="AE198" s="57"/>
-      <c r="AF198" s="57"/>
-      <c r="AG198" s="57"/>
-      <c r="AH198" s="57"/>
+      <c r="A198" s="56"/>
+      <c r="B198" s="56"/>
+      <c r="C198" s="56"/>
+      <c r="D198" s="56"/>
+      <c r="E198" s="56"/>
+      <c r="F198" s="56"/>
+      <c r="G198" s="56"/>
+      <c r="H198" s="56"/>
+      <c r="I198" s="56"/>
+      <c r="J198" s="56"/>
+      <c r="K198" s="56"/>
+      <c r="L198" s="56"/>
+      <c r="M198" s="56"/>
+      <c r="N198" s="56"/>
+      <c r="O198" s="56"/>
+      <c r="P198" s="56"/>
+      <c r="Q198" s="56"/>
+      <c r="R198" s="56"/>
+      <c r="S198" s="56"/>
+      <c r="T198" s="56"/>
+      <c r="U198" s="56"/>
+      <c r="V198" s="56"/>
+      <c r="W198" s="56"/>
+      <c r="X198" s="56"/>
+      <c r="Y198" s="56"/>
+      <c r="Z198" s="56"/>
+      <c r="AA198" s="56"/>
+      <c r="AB198" s="56"/>
+      <c r="AC198" s="56"/>
+      <c r="AD198" s="56"/>
+      <c r="AE198" s="56"/>
+      <c r="AF198" s="56"/>
+      <c r="AG198" s="56"/>
+      <c r="AH198" s="56"/>
     </row>
     <row r="200" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="201" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B201" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C201" s="28"/>
       <c r="D201" s="28"/>
       <c r="E201" s="29"/>
-      <c r="G201" s="55" t="s">
+      <c r="G201" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H201" s="53"/>
-      <c r="I201" s="53"/>
-      <c r="J201" s="53"/>
-      <c r="K201" s="53"/>
-      <c r="L201" s="53"/>
-      <c r="M201" s="53"/>
-      <c r="N201" s="53"/>
-      <c r="O201" s="53"/>
-      <c r="P201" s="53"/>
-      <c r="Q201" s="53"/>
-      <c r="R201" s="53"/>
-      <c r="S201" s="53"/>
-      <c r="T201" s="53"/>
-      <c r="U201" s="53"/>
-      <c r="V201" s="54"/>
+      <c r="H201" s="52"/>
+      <c r="I201" s="52"/>
+      <c r="J201" s="52"/>
+      <c r="K201" s="52"/>
+      <c r="L201" s="52"/>
+      <c r="M201" s="52"/>
+      <c r="N201" s="52"/>
+      <c r="O201" s="52"/>
+      <c r="P201" s="52"/>
+      <c r="Q201" s="52"/>
+      <c r="R201" s="52"/>
+      <c r="S201" s="52"/>
+      <c r="T201" s="52"/>
+      <c r="U201" s="52"/>
+      <c r="V201" s="53"/>
     </row>
     <row r="202" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B202" s="2" t="s">
@@ -5369,7 +5043,7 @@
       <c r="E209" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G209" s="56" t="s">
+      <c r="G209" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H209" s="20"/>
@@ -5465,7 +5139,7 @@
     <row r="213" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="214" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B214" s="58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C214" s="59"/>
       <c r="D214" s="59"/>
@@ -5526,67 +5200,67 @@
       <c r="E223" s="66"/>
     </row>
     <row r="225" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="57"/>
-      <c r="B225" s="57"/>
-      <c r="C225" s="57"/>
-      <c r="D225" s="57"/>
-      <c r="E225" s="57"/>
-      <c r="F225" s="57"/>
-      <c r="G225" s="57"/>
-      <c r="H225" s="57"/>
-      <c r="I225" s="57"/>
-      <c r="J225" s="57"/>
-      <c r="K225" s="57"/>
-      <c r="L225" s="57"/>
-      <c r="M225" s="57"/>
-      <c r="N225" s="57"/>
-      <c r="O225" s="57"/>
-      <c r="P225" s="57"/>
-      <c r="Q225" s="57"/>
-      <c r="R225" s="57"/>
-      <c r="S225" s="57"/>
-      <c r="T225" s="57"/>
-      <c r="U225" s="57"/>
-      <c r="V225" s="57"/>
-      <c r="W225" s="57"/>
-      <c r="X225" s="57"/>
-      <c r="Y225" s="57"/>
-      <c r="Z225" s="57"/>
-      <c r="AA225" s="57"/>
-      <c r="AB225" s="57"/>
-      <c r="AC225" s="57"/>
-      <c r="AD225" s="57"/>
-      <c r="AE225" s="57"/>
-      <c r="AF225" s="57"/>
-      <c r="AG225" s="57"/>
-      <c r="AH225" s="57"/>
+      <c r="A225" s="56"/>
+      <c r="B225" s="56"/>
+      <c r="C225" s="56"/>
+      <c r="D225" s="56"/>
+      <c r="E225" s="56"/>
+      <c r="F225" s="56"/>
+      <c r="G225" s="56"/>
+      <c r="H225" s="56"/>
+      <c r="I225" s="56"/>
+      <c r="J225" s="56"/>
+      <c r="K225" s="56"/>
+      <c r="L225" s="56"/>
+      <c r="M225" s="56"/>
+      <c r="N225" s="56"/>
+      <c r="O225" s="56"/>
+      <c r="P225" s="56"/>
+      <c r="Q225" s="56"/>
+      <c r="R225" s="56"/>
+      <c r="S225" s="56"/>
+      <c r="T225" s="56"/>
+      <c r="U225" s="56"/>
+      <c r="V225" s="56"/>
+      <c r="W225" s="56"/>
+      <c r="X225" s="56"/>
+      <c r="Y225" s="56"/>
+      <c r="Z225" s="56"/>
+      <c r="AA225" s="56"/>
+      <c r="AB225" s="56"/>
+      <c r="AC225" s="56"/>
+      <c r="AD225" s="56"/>
+      <c r="AE225" s="56"/>
+      <c r="AF225" s="56"/>
+      <c r="AG225" s="56"/>
+      <c r="AH225" s="56"/>
     </row>
     <row r="227" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="228" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B228" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C228" s="28"/>
       <c r="D228" s="28"/>
       <c r="E228" s="29"/>
-      <c r="G228" s="55" t="s">
+      <c r="G228" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H228" s="53"/>
-      <c r="I228" s="53"/>
-      <c r="J228" s="53"/>
-      <c r="K228" s="53"/>
-      <c r="L228" s="53"/>
-      <c r="M228" s="53"/>
-      <c r="N228" s="53"/>
-      <c r="O228" s="53"/>
-      <c r="P228" s="53"/>
-      <c r="Q228" s="53"/>
-      <c r="R228" s="53"/>
-      <c r="S228" s="53"/>
-      <c r="T228" s="53"/>
-      <c r="U228" s="53"/>
-      <c r="V228" s="54"/>
+      <c r="H228" s="52"/>
+      <c r="I228" s="52"/>
+      <c r="J228" s="52"/>
+      <c r="K228" s="52"/>
+      <c r="L228" s="52"/>
+      <c r="M228" s="52"/>
+      <c r="N228" s="52"/>
+      <c r="O228" s="52"/>
+      <c r="P228" s="52"/>
+      <c r="Q228" s="52"/>
+      <c r="R228" s="52"/>
+      <c r="S228" s="52"/>
+      <c r="T228" s="52"/>
+      <c r="U228" s="67"/>
+      <c r="V228" s="79"/>
     </row>
     <row r="229" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B229" s="2" t="s">
@@ -5641,12 +5315,10 @@
       <c r="T229" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U229" s="1" t="s">
+      <c r="U229" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="V229" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="V229" s="79"/>
     </row>
     <row r="230" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B230" s="4" t="s">
@@ -5679,8 +5351,8 @@
       <c r="R230" s="5"/>
       <c r="S230" s="5"/>
       <c r="T230" s="5"/>
-      <c r="U230" s="5"/>
-      <c r="V230" s="6"/>
+      <c r="U230" s="69"/>
+      <c r="V230" s="79"/>
     </row>
     <row r="231" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B231" s="7" t="s">
@@ -5717,8 +5389,8 @@
       <c r="R231" s="8"/>
       <c r="S231" s="8"/>
       <c r="T231" s="8"/>
-      <c r="U231" s="8"/>
-      <c r="V231" s="9"/>
+      <c r="U231" s="70"/>
+      <c r="V231" s="79"/>
     </row>
     <row r="232" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B232" s="10" t="s">
@@ -5728,7 +5400,7 @@
         <v>2</v>
       </c>
       <c r="D232" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E232" s="41" t="s">
         <v>16</v>
@@ -5755,8 +5427,8 @@
       <c r="R232" s="11"/>
       <c r="S232" s="11"/>
       <c r="T232" s="11"/>
-      <c r="U232" s="11"/>
-      <c r="V232" s="12"/>
+      <c r="U232" s="71"/>
+      <c r="V232" s="79"/>
     </row>
     <row r="233" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B233" s="13" t="s">
@@ -5795,8 +5467,8 @@
       <c r="R233" s="14"/>
       <c r="S233" s="14"/>
       <c r="T233" s="14"/>
-      <c r="U233" s="14"/>
-      <c r="V233" s="15"/>
+      <c r="U233" s="72"/>
+      <c r="V233" s="79"/>
     </row>
     <row r="234" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B234" s="25" t="s">
@@ -5831,8 +5503,8 @@
       <c r="R234" s="26"/>
       <c r="S234" s="26"/>
       <c r="T234" s="26"/>
-      <c r="U234" s="26"/>
-      <c r="V234" s="27"/>
+      <c r="U234" s="73"/>
+      <c r="V234" s="79"/>
     </row>
     <row r="235" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B235" s="16" t="s">
@@ -5865,8 +5537,8 @@
       <c r="R235" s="17"/>
       <c r="S235" s="17"/>
       <c r="T235" s="17"/>
-      <c r="U235" s="17"/>
-      <c r="V235" s="18"/>
+      <c r="U235" s="74"/>
+      <c r="V235" s="79"/>
     </row>
     <row r="236" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B236" s="19" t="s">
@@ -5881,7 +5553,7 @@
       <c r="E236" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G236" s="56" t="s">
+      <c r="G236" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H236" s="20"/>
@@ -5893,16 +5565,16 @@
       <c r="N236" s="20"/>
       <c r="O236" s="20"/>
       <c r="P236" s="20"/>
-      <c r="Q236" s="20"/>
+      <c r="Q236" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="R236" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="S236" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="S236" s="20"/>
       <c r="T236" s="20"/>
-      <c r="U236" s="20"/>
-      <c r="V236" s="21"/>
+      <c r="U236" s="75"/>
+      <c r="V236" s="79"/>
     </row>
     <row r="237" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B237" s="22" t="s">
@@ -5931,14 +5603,14 @@
       <c r="P237" s="23"/>
       <c r="Q237" s="23"/>
       <c r="R237" s="23"/>
-      <c r="S237" s="23"/>
+      <c r="S237" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="T237" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="U237" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V237" s="24"/>
+      <c r="U237" s="76"/>
+      <c r="V237" s="79"/>
     </row>
     <row r="238" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B238" s="47" t="s">
@@ -5969,341 +5641,251 @@
       <c r="R238" s="50"/>
       <c r="S238" s="50"/>
       <c r="T238" s="50"/>
-      <c r="U238" s="50"/>
-      <c r="V238" s="51" t="s">
-        <v>18</v>
-      </c>
+      <c r="U238" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="V238" s="79"/>
     </row>
     <row r="240" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="241" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B241" s="58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C241" s="59"/>
       <c r="D241" s="59"/>
       <c r="E241" s="60"/>
-      <c r="G241" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="H241" s="53"/>
-      <c r="I241" s="53"/>
-      <c r="J241" s="53"/>
-      <c r="K241" s="53"/>
-      <c r="L241" s="53"/>
-      <c r="M241" s="53"/>
-      <c r="N241" s="53"/>
-      <c r="O241" s="53"/>
-      <c r="P241" s="53"/>
-      <c r="Q241" s="53"/>
-      <c r="R241" s="53"/>
-      <c r="S241" s="53"/>
-      <c r="T241" s="53"/>
-      <c r="U241" s="53"/>
-      <c r="V241" s="54"/>
+      <c r="G241" s="80"/>
+      <c r="H241" s="79"/>
+      <c r="I241" s="79"/>
+      <c r="J241" s="79"/>
+      <c r="K241" s="79"/>
+      <c r="L241" s="79"/>
+      <c r="M241" s="79"/>
+      <c r="N241" s="79"/>
+      <c r="O241" s="79"/>
+      <c r="P241" s="79"/>
+      <c r="Q241" s="79"/>
+      <c r="R241" s="79"/>
+      <c r="S241" s="79"/>
+      <c r="T241" s="79"/>
+      <c r="U241" s="79"/>
+      <c r="V241" s="79"/>
     </row>
     <row r="242" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B242" s="61"/>
       <c r="C242" s="62"/>
       <c r="D242" s="62"/>
       <c r="E242" s="63"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I242" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J242" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K242" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L242" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M242" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O242" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P242" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q242" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R242" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S242" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T242" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U242" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V242" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="G242" s="79"/>
+      <c r="H242" s="79"/>
+      <c r="I242" s="79"/>
+      <c r="J242" s="79"/>
+      <c r="K242" s="79"/>
+      <c r="L242" s="79"/>
+      <c r="M242" s="79"/>
+      <c r="N242" s="79"/>
+      <c r="O242" s="79"/>
+      <c r="P242" s="79"/>
+      <c r="Q242" s="79"/>
+      <c r="R242" s="79"/>
+      <c r="S242" s="79"/>
+      <c r="T242" s="79"/>
+      <c r="U242" s="79"/>
+      <c r="V242" s="79"/>
     </row>
     <row r="243" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B243" s="61"/>
       <c r="C243" s="62"/>
       <c r="D243" s="62"/>
       <c r="E243" s="63"/>
-      <c r="G243" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H243" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I243" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J243" s="5"/>
-      <c r="K243" s="5"/>
-      <c r="L243" s="5"/>
-      <c r="M243" s="5"/>
-      <c r="N243" s="5"/>
-      <c r="O243" s="5"/>
-      <c r="P243" s="5"/>
-      <c r="Q243" s="5"/>
-      <c r="R243" s="5"/>
-      <c r="S243" s="5"/>
-      <c r="T243" s="5"/>
-      <c r="U243" s="5"/>
-      <c r="V243" s="6"/>
+      <c r="G243" s="79"/>
+      <c r="H243" s="79"/>
+      <c r="I243" s="79"/>
+      <c r="J243" s="79"/>
+      <c r="K243" s="79"/>
+      <c r="L243" s="79"/>
+      <c r="M243" s="79"/>
+      <c r="N243" s="79"/>
+      <c r="O243" s="79"/>
+      <c r="P243" s="79"/>
+      <c r="Q243" s="79"/>
+      <c r="R243" s="79"/>
+      <c r="S243" s="79"/>
+      <c r="T243" s="79"/>
+      <c r="U243" s="79"/>
+      <c r="V243" s="79"/>
     </row>
     <row r="244" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B244" s="61"/>
       <c r="C244" s="62"/>
       <c r="D244" s="62"/>
       <c r="E244" s="63"/>
-      <c r="G244" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H244" s="8"/>
-      <c r="I244" s="8"/>
-      <c r="J244" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K244" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L244" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M244" s="8"/>
-      <c r="N244" s="8"/>
-      <c r="O244" s="8"/>
-      <c r="P244" s="8"/>
-      <c r="Q244" s="8"/>
-      <c r="R244" s="8"/>
-      <c r="S244" s="8"/>
-      <c r="T244" s="8"/>
-      <c r="U244" s="8"/>
-      <c r="V244" s="9"/>
+      <c r="G244" s="79"/>
+      <c r="H244" s="79"/>
+      <c r="I244" s="79"/>
+      <c r="J244" s="79"/>
+      <c r="K244" s="79"/>
+      <c r="L244" s="79"/>
+      <c r="M244" s="79"/>
+      <c r="N244" s="79"/>
+      <c r="O244" s="79"/>
+      <c r="P244" s="79"/>
+      <c r="Q244" s="79"/>
+      <c r="R244" s="79"/>
+      <c r="S244" s="79"/>
+      <c r="T244" s="79"/>
+      <c r="U244" s="79"/>
+      <c r="V244" s="79"/>
     </row>
     <row r="245" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B245" s="61"/>
       <c r="C245" s="62"/>
       <c r="D245" s="62"/>
       <c r="E245" s="63"/>
-      <c r="G245" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H245" s="11"/>
-      <c r="I245" s="11"/>
-      <c r="J245" s="11"/>
-      <c r="K245" s="11"/>
-      <c r="L245" s="11"/>
-      <c r="M245" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N245" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O245" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P245" s="11"/>
-      <c r="Q245" s="11"/>
-      <c r="R245" s="11"/>
-      <c r="S245" s="11"/>
-      <c r="T245" s="11"/>
-      <c r="U245" s="11"/>
-      <c r="V245" s="12"/>
+      <c r="G245" s="79"/>
+      <c r="H245" s="79"/>
+      <c r="I245" s="79"/>
+      <c r="J245" s="79"/>
+      <c r="K245" s="79"/>
+      <c r="L245" s="79"/>
+      <c r="M245" s="79"/>
+      <c r="N245" s="79"/>
+      <c r="O245" s="79"/>
+      <c r="P245" s="79"/>
+      <c r="Q245" s="79"/>
+      <c r="R245" s="79"/>
+      <c r="S245" s="79"/>
+      <c r="T245" s="79"/>
+      <c r="U245" s="79"/>
+      <c r="V245" s="79"/>
     </row>
     <row r="246" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B246" s="61"/>
       <c r="C246" s="62"/>
       <c r="D246" s="62"/>
       <c r="E246" s="63"/>
-      <c r="G246" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H246" s="14"/>
-      <c r="I246" s="14"/>
-      <c r="J246" s="14"/>
-      <c r="K246" s="14"/>
-      <c r="L246" s="14"/>
-      <c r="M246" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N246" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O246" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P246" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q246" s="14"/>
-      <c r="R246" s="14"/>
-      <c r="S246" s="14"/>
-      <c r="T246" s="14"/>
-      <c r="U246" s="14"/>
-      <c r="V246" s="15"/>
+      <c r="G246" s="79"/>
+      <c r="H246" s="79"/>
+      <c r="I246" s="79"/>
+      <c r="J246" s="79"/>
+      <c r="K246" s="79"/>
+      <c r="L246" s="79"/>
+      <c r="M246" s="79"/>
+      <c r="N246" s="79"/>
+      <c r="O246" s="79"/>
+      <c r="P246" s="79"/>
+      <c r="Q246" s="79"/>
+      <c r="R246" s="79"/>
+      <c r="S246" s="79"/>
+      <c r="T246" s="79"/>
+      <c r="U246" s="79"/>
+      <c r="V246" s="79"/>
     </row>
     <row r="247" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B247" s="61"/>
       <c r="C247" s="62"/>
       <c r="D247" s="62"/>
       <c r="E247" s="63"/>
-      <c r="G247" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H247" s="26"/>
-      <c r="I247" s="26"/>
-      <c r="J247" s="26"/>
-      <c r="K247" s="26"/>
-      <c r="L247" s="26"/>
-      <c r="M247" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N247" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O247" s="26"/>
-      <c r="P247" s="26"/>
-      <c r="Q247" s="26"/>
-      <c r="R247" s="26"/>
-      <c r="S247" s="26"/>
-      <c r="T247" s="26"/>
-      <c r="U247" s="26"/>
-      <c r="V247" s="27"/>
+      <c r="G247" s="79"/>
+      <c r="H247" s="79"/>
+      <c r="I247" s="79"/>
+      <c r="J247" s="79"/>
+      <c r="K247" s="79"/>
+      <c r="L247" s="79"/>
+      <c r="M247" s="79"/>
+      <c r="N247" s="79"/>
+      <c r="O247" s="79"/>
+      <c r="P247" s="79"/>
+      <c r="Q247" s="79"/>
+      <c r="R247" s="79"/>
+      <c r="S247" s="79"/>
+      <c r="T247" s="79"/>
+      <c r="U247" s="79"/>
+      <c r="V247" s="79"/>
     </row>
     <row r="248" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B248" s="61"/>
       <c r="C248" s="62"/>
       <c r="D248" s="62"/>
       <c r="E248" s="63"/>
-      <c r="G248" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H248" s="17"/>
-      <c r="I248" s="17"/>
-      <c r="J248" s="17"/>
-      <c r="K248" s="17"/>
-      <c r="L248" s="17"/>
-      <c r="M248" s="17"/>
-      <c r="N248" s="17"/>
-      <c r="O248" s="17"/>
-      <c r="P248" s="17"/>
-      <c r="Q248" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="R248" s="17"/>
-      <c r="S248" s="17"/>
-      <c r="T248" s="17"/>
-      <c r="U248" s="17"/>
-      <c r="V248" s="18"/>
+      <c r="G248" s="79"/>
+      <c r="H248" s="79"/>
+      <c r="I248" s="79"/>
+      <c r="J248" s="79"/>
+      <c r="K248" s="79"/>
+      <c r="L248" s="79"/>
+      <c r="M248" s="79"/>
+      <c r="N248" s="79"/>
+      <c r="O248" s="79"/>
+      <c r="P248" s="79"/>
+      <c r="Q248" s="79"/>
+      <c r="R248" s="79"/>
+      <c r="S248" s="79"/>
+      <c r="T248" s="79"/>
+      <c r="U248" s="79"/>
+      <c r="V248" s="79"/>
     </row>
     <row r="249" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B249" s="61"/>
       <c r="C249" s="62"/>
       <c r="D249" s="62"/>
       <c r="E249" s="63"/>
-      <c r="G249" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H249" s="20"/>
-      <c r="I249" s="20"/>
-      <c r="J249" s="20"/>
-      <c r="K249" s="20"/>
-      <c r="L249" s="20"/>
-      <c r="M249" s="20"/>
-      <c r="N249" s="20"/>
-      <c r="O249" s="20"/>
-      <c r="P249" s="20"/>
-      <c r="Q249" s="20"/>
-      <c r="R249" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S249" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="T249" s="20"/>
-      <c r="U249" s="20"/>
-      <c r="V249" s="21"/>
+      <c r="G249" s="79"/>
+      <c r="H249" s="79"/>
+      <c r="I249" s="79"/>
+      <c r="J249" s="79"/>
+      <c r="K249" s="79"/>
+      <c r="L249" s="79"/>
+      <c r="M249" s="79"/>
+      <c r="N249" s="79"/>
+      <c r="O249" s="79"/>
+      <c r="P249" s="79"/>
+      <c r="Q249" s="79"/>
+      <c r="R249" s="79"/>
+      <c r="S249" s="79"/>
+      <c r="T249" s="79"/>
+      <c r="U249" s="79"/>
+      <c r="V249" s="79"/>
     </row>
     <row r="250" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B250" s="64"/>
       <c r="C250" s="65"/>
       <c r="D250" s="65"/>
       <c r="E250" s="66"/>
-      <c r="G250" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H250" s="23"/>
-      <c r="I250" s="23"/>
-      <c r="J250" s="23"/>
-      <c r="K250" s="23"/>
-      <c r="L250" s="23"/>
-      <c r="M250" s="23"/>
-      <c r="N250" s="23"/>
-      <c r="O250" s="23"/>
-      <c r="P250" s="23"/>
-      <c r="Q250" s="23"/>
-      <c r="R250" s="23"/>
-      <c r="S250" s="23"/>
-      <c r="T250" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U250" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="V250" s="24"/>
-    </row>
-    <row r="251" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G251" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H251" s="50"/>
-      <c r="I251" s="50"/>
-      <c r="J251" s="50"/>
-      <c r="K251" s="50"/>
-      <c r="L251" s="50"/>
-      <c r="M251" s="50"/>
-      <c r="N251" s="50"/>
-      <c r="O251" s="50"/>
-      <c r="P251" s="50"/>
-      <c r="Q251" s="50"/>
-      <c r="R251" s="50"/>
-      <c r="S251" s="50"/>
-      <c r="T251" s="50"/>
-      <c r="U251" s="50"/>
-      <c r="V251" s="51" t="s">
-        <v>18</v>
-      </c>
+      <c r="G250" s="79"/>
+      <c r="H250" s="79"/>
+      <c r="I250" s="79"/>
+      <c r="J250" s="79"/>
+      <c r="K250" s="79"/>
+      <c r="L250" s="79"/>
+      <c r="M250" s="79"/>
+      <c r="N250" s="79"/>
+      <c r="O250" s="79"/>
+      <c r="P250" s="79"/>
+      <c r="Q250" s="79"/>
+      <c r="R250" s="79"/>
+      <c r="S250" s="79"/>
+      <c r="T250" s="79"/>
+      <c r="U250" s="79"/>
+      <c r="V250" s="79"/>
+    </row>
+    <row r="251" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="G251" s="79"/>
+      <c r="H251" s="79"/>
+      <c r="I251" s="79"/>
+      <c r="J251" s="79"/>
+      <c r="K251" s="79"/>
+      <c r="L251" s="79"/>
+      <c r="M251" s="79"/>
+      <c r="N251" s="79"/>
+      <c r="O251" s="79"/>
+      <c r="P251" s="79"/>
+      <c r="Q251" s="79"/>
+      <c r="R251" s="79"/>
+      <c r="S251" s="79"/>
+      <c r="T251" s="79"/>
+      <c r="U251" s="79"/>
+      <c r="V251" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="9">
